--- a/gdrive/Go_real_time_data/Go real-time demo questionnaire (Responses).xlsx
+++ b/gdrive/Go_real_time_data/Go real-time demo questionnaire (Responses).xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Timestamp</t>
   </si>
@@ -39,17 +39,24 @@
   <si>
     <t>Q2f. Teljes kutatási protokoll megtervezése, amely legalább emberi szintű validitást biztosít a belőle levont tudományos következtetéseknek</t>
   </si>
+  <si>
+    <t>Igen</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss"/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -65,9 +72,15 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -126,6 +139,35 @@
         <v>8</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>43543.64779681713</v>
+      </c>
+      <c r="B2" s="2">
+        <v>36.0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>40.0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>40.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/gdrive/Go_real_time_data/Go real-time demo questionnaire (Responses).xlsx
+++ b/gdrive/Go_real_time_data/Go real-time demo questionnaire (Responses).xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Timestamp</t>
   </si>
@@ -168,6 +168,35 @@
         <v>40.0</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>43543.64854232639</v>
+      </c>
+      <c r="B3" s="2">
+        <v>25.0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>16.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/gdrive/Go_real_time_data/Go real-time demo questionnaire (Responses).xlsx
+++ b/gdrive/Go_real_time_data/Go real-time demo questionnaire (Responses).xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
   <si>
     <t>Timestamp</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>Igen</t>
+  </si>
+  <si>
+    <t>Nem</t>
   </si>
 </sst>
 </file>
@@ -141,7 +144,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1">
-        <v>43543.64779681713</v>
+        <v>43543.64779716435</v>
       </c>
       <c r="B2" s="2">
         <v>36.0</v>
@@ -170,7 +173,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1">
-        <v>43543.64854232639</v>
+        <v>43543.648542627314</v>
       </c>
       <c r="B3" s="2">
         <v>25.0</v>
@@ -195,6 +198,264 @@
       </c>
       <c r="I3" s="2">
         <v>16.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>43543.70085434028</v>
+      </c>
+      <c r="B4" s="2">
+        <v>40.0</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>43543.70088898148</v>
+      </c>
+      <c r="B5" s="2">
+        <v>24.0</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>43543.70130385416</v>
+      </c>
+      <c r="B6" s="2">
+        <v>22.0</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>43543.701371469906</v>
+      </c>
+      <c r="B7" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>43543.70141650463</v>
+      </c>
+      <c r="B8" s="2">
+        <v>31.0</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>200.0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1000000.0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1000.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>43543.70144174769</v>
+      </c>
+      <c r="B9" s="2">
+        <v>21.0</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>43543.701443321756</v>
+      </c>
+      <c r="B10" s="2">
+        <v>22.0</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="2">
+        <v>50.0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>100.0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>43543.701457557865</v>
+      </c>
+      <c r="B11" s="2">
+        <v>25.0</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="G11" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="I11" s="2">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>43543.70149054399</v>
+      </c>
+      <c r="B12" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2025.0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>2025.0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>2030.0</v>
+      </c>
+      <c r="G12" s="2">
+        <v>2035.0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>2035.0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>2040.0</v>
       </c>
     </row>
   </sheetData>

--- a/gdrive/Go_real_time_data/Go real-time demo questionnaire (Responses).xlsx
+++ b/gdrive/Go_real_time_data/Go real-time demo questionnaire (Responses).xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="12">
   <si>
     <t>Timestamp</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>Nem</t>
+  </si>
+  <si>
+    <t>nem automatizálható</t>
   </si>
 </sst>
 </file>
@@ -458,6 +461,470 @@
         <v>2040.0</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>43543.70157006945</v>
+      </c>
+      <c r="B13" s="2">
+        <v>19.0</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="2">
+        <v>100.0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="G13" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>35.0</v>
+      </c>
+      <c r="I13" s="2">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>43543.701585717594</v>
+      </c>
+      <c r="B14" s="2">
+        <v>19.0</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="G14" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="I14" s="2">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>43543.701714490744</v>
+      </c>
+      <c r="B15" s="2">
+        <v>22.0</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="G15" s="2">
+        <v>50.0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>50.0</v>
+      </c>
+      <c r="I15" s="2">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>43543.701745810184</v>
+      </c>
+      <c r="B16" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="E16" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="F16" s="2">
+        <v>50.0</v>
+      </c>
+      <c r="G16" s="2">
+        <v>29.0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>100.0</v>
+      </c>
+      <c r="I16" s="2">
+        <v>120.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>43543.70176880787</v>
+      </c>
+      <c r="B17" s="2">
+        <v>18.0</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="F17" s="2">
+        <v>50.0</v>
+      </c>
+      <c r="G17" s="2">
+        <v>45.0</v>
+      </c>
+      <c r="H17" s="2">
+        <v>70.0</v>
+      </c>
+      <c r="I17" s="2">
+        <v>85.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1">
+        <v>43543.701785729165</v>
+      </c>
+      <c r="B18" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="F18" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="G18" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="H18" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="I18" s="2">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1">
+        <v>43543.701796354166</v>
+      </c>
+      <c r="B19" s="2">
+        <v>48.0</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="2">
+        <v>25.0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="F19" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="I19" s="2">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1">
+        <v>43543.70184142361</v>
+      </c>
+      <c r="B20" s="2">
+        <v>26.0</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F20" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="G20" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="H20" s="2">
+        <v>50.0</v>
+      </c>
+      <c r="I20" s="2">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1">
+        <v>43543.70191939815</v>
+      </c>
+      <c r="B21" s="2">
+        <v>19.0</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="2">
+        <v>60.0</v>
+      </c>
+      <c r="E21" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="F21" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="G21" s="2">
+        <v>40.0</v>
+      </c>
+      <c r="H21" s="2">
+        <v>70.0</v>
+      </c>
+      <c r="I21" s="2">
+        <v>40.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1">
+        <v>43543.701930462965</v>
+      </c>
+      <c r="B22" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="E22" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="F22" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="G22" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="H22" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="I22" s="2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1">
+        <v>43543.70195594907</v>
+      </c>
+      <c r="B23" s="2">
+        <v>23.0</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="E23" s="2">
+        <v>25.0</v>
+      </c>
+      <c r="F23" s="2">
+        <v>25.0</v>
+      </c>
+      <c r="G23" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="H23" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="I23" s="2">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1">
+        <v>43543.702366840276</v>
+      </c>
+      <c r="B24" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="2">
+        <v>200.0</v>
+      </c>
+      <c r="E24" s="2">
+        <v>250.0</v>
+      </c>
+      <c r="F24" s="2">
+        <v>250.0</v>
+      </c>
+      <c r="G24" s="2">
+        <v>260.0</v>
+      </c>
+      <c r="H24" s="2">
+        <v>250.0</v>
+      </c>
+      <c r="I24" s="2">
+        <v>250.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1">
+        <v>43543.702661539355</v>
+      </c>
+      <c r="B25" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="E25" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="F25" s="2">
+        <v>60.0</v>
+      </c>
+      <c r="G25" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="H25" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="I25" s="2">
+        <v>40.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1">
+        <v>43543.702770497686</v>
+      </c>
+      <c r="B26" s="2">
+        <v>46.0</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="E26" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="F26" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="G26" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="H26" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="I26" s="2">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1">
+        <v>43543.703226087964</v>
+      </c>
+      <c r="B27" s="2">
+        <v>22.0</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E27" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="F27" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="G27" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="H27" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="I27" s="2">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1">
+        <v>43543.7032837963</v>
+      </c>
+      <c r="B28" s="2">
+        <v>21.0</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="E28" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="F28" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="G28" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="H28" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="I28" s="2">
+        <v>10.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/gdrive/Go_real_time_data/Go real-time demo questionnaire (Responses).xlsx
+++ b/gdrive/Go_real_time_data/Go real-time demo questionnaire (Responses).xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="12">
   <si>
     <t>Timestamp</t>
   </si>
@@ -925,6 +925,64 @@
         <v>10.0</v>
       </c>
     </row>
+    <row r="29">
+      <c r="A29" s="1">
+        <v>43543.70395643519</v>
+      </c>
+      <c r="B29" s="2">
+        <v>23.0</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="2">
+        <v>48.0</v>
+      </c>
+      <c r="E29" s="2">
+        <v>48.0</v>
+      </c>
+      <c r="F29" s="2">
+        <v>55.0</v>
+      </c>
+      <c r="G29" s="2">
+        <v>48.0</v>
+      </c>
+      <c r="H29" s="2">
+        <v>48.0</v>
+      </c>
+      <c r="I29" s="2">
+        <v>55.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1">
+        <v>43543.70454511574</v>
+      </c>
+      <c r="B30" s="2">
+        <v>28.0</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="E30" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="F30" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="G30" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="H30" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="I30" s="2">
+        <v>10.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/gdrive/Go_real_time_data/Go real-time demo questionnaire (Responses).xlsx
+++ b/gdrive/Go_real_time_data/Go real-time demo questionnaire (Responses).xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="12">
   <si>
     <t>Timestamp</t>
   </si>
@@ -263,7 +263,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1">
-        <v>43543.70130385416</v>
+        <v>43543.701306319446</v>
       </c>
       <c r="B6" s="2">
         <v>22.0</v>
@@ -292,7 +292,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1">
-        <v>43543.701371469906</v>
+        <v>43543.70137398149</v>
       </c>
       <c r="B7" s="2">
         <v>30.0</v>
@@ -318,7 +318,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1">
-        <v>43543.70141650463</v>
+        <v>43543.70141898148</v>
       </c>
       <c r="B8" s="2">
         <v>31.0</v>
@@ -347,7 +347,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1">
-        <v>43543.70144174769</v>
+        <v>43543.701444606486</v>
       </c>
       <c r="B9" s="2">
         <v>21.0</v>
@@ -376,7 +376,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1">
-        <v>43543.701443321756</v>
+        <v>43543.70144592592</v>
       </c>
       <c r="B10" s="2">
         <v>22.0</v>
@@ -405,7 +405,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1">
-        <v>43543.701457557865</v>
+        <v>43543.7014600463</v>
       </c>
       <c r="B11" s="2">
         <v>25.0</v>
@@ -434,7 +434,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1">
-        <v>43543.70149054399</v>
+        <v>43543.70149303241</v>
       </c>
       <c r="B12" s="2">
         <v>20.0</v>
@@ -463,7 +463,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1">
-        <v>43543.70157006945</v>
+        <v>43543.70157239583</v>
       </c>
       <c r="B13" s="2">
         <v>19.0</v>
@@ -492,7 +492,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1">
-        <v>43543.701585717594</v>
+        <v>43543.701588055555</v>
       </c>
       <c r="B14" s="2">
         <v>19.0</v>
@@ -521,7 +521,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1">
-        <v>43543.701714490744</v>
+        <v>43543.70171704861</v>
       </c>
       <c r="B15" s="2">
         <v>22.0</v>
@@ -550,7 +550,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1">
-        <v>43543.701745810184</v>
+        <v>43543.70174804398</v>
       </c>
       <c r="B16" s="2">
         <v>20.0</v>
@@ -579,7 +579,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1">
-        <v>43543.70176880787</v>
+        <v>43543.70177105324</v>
       </c>
       <c r="B17" s="2">
         <v>18.0</v>
@@ -608,7 +608,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1">
-        <v>43543.701785729165</v>
+        <v>43543.701788136575</v>
       </c>
       <c r="B18" s="2">
         <v>20.0</v>
@@ -637,7 +637,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1">
-        <v>43543.701796354166</v>
+        <v>43543.70179859953</v>
       </c>
       <c r="B19" s="2">
         <v>48.0</v>
@@ -666,7 +666,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1">
-        <v>43543.70184142361</v>
+        <v>43543.70184376158</v>
       </c>
       <c r="B20" s="2">
         <v>26.0</v>
@@ -695,7 +695,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1">
-        <v>43543.70191939815</v>
+        <v>43543.701921597225</v>
       </c>
       <c r="B21" s="2">
         <v>19.0</v>
@@ -724,7 +724,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1">
-        <v>43543.701930462965</v>
+        <v>43543.70193277778</v>
       </c>
       <c r="B22" s="2">
         <v>20.0</v>
@@ -753,7 +753,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1">
-        <v>43543.70195594907</v>
+        <v>43543.70195826389</v>
       </c>
       <c r="B23" s="2">
         <v>23.0</v>
@@ -782,7 +782,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1">
-        <v>43543.702366840276</v>
+        <v>43543.7023695949</v>
       </c>
       <c r="B24" s="2">
         <v>20.0</v>
@@ -811,7 +811,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1">
-        <v>43543.702661539355</v>
+        <v>43543.702663703705</v>
       </c>
       <c r="B25" s="2">
         <v>20.0</v>
@@ -840,7 +840,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1">
-        <v>43543.702770497686</v>
+        <v>43543.7027725463</v>
       </c>
       <c r="B26" s="2">
         <v>46.0</v>
@@ -869,7 +869,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1">
-        <v>43543.703226087964</v>
+        <v>43543.70322800926</v>
       </c>
       <c r="B27" s="2">
         <v>22.0</v>
@@ -898,7 +898,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1">
-        <v>43543.7032837963</v>
+        <v>43543.70328569444</v>
       </c>
       <c r="B28" s="2">
         <v>21.0</v>
@@ -927,7 +927,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1">
-        <v>43543.70395643519</v>
+        <v>43543.70395819444</v>
       </c>
       <c r="B29" s="2">
         <v>23.0</v>
@@ -956,7 +956,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1">
-        <v>43543.70454511574</v>
+        <v>43543.70454665509</v>
       </c>
       <c r="B30" s="2">
         <v>28.0</v>
@@ -981,6 +981,63 @@
       </c>
       <c r="I30" s="2">
         <v>10.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1">
+        <v>43543.70521263889</v>
+      </c>
+      <c r="B31" s="2">
+        <v>28.0</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="2">
+        <v>1000.0</v>
+      </c>
+      <c r="E31" s="2">
+        <v>1000.0</v>
+      </c>
+      <c r="F31" s="2">
+        <v>1000.0</v>
+      </c>
+      <c r="G31" s="2">
+        <v>1000.0</v>
+      </c>
+      <c r="H31" s="2">
+        <v>1000.0</v>
+      </c>
+      <c r="I31" s="2">
+        <v>1000.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1">
+        <v>43543.705503206016</v>
+      </c>
+      <c r="B32" s="2">
+        <v>60.0</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1500.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1">
+        <v>43543.705806909726</v>
+      </c>
+      <c r="B33" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="2">
+        <v>1300.0</v>
       </c>
     </row>
   </sheetData>

--- a/gdrive/Go_real_time_data/Go real-time demo questionnaire (Responses).xlsx
+++ b/gdrive/Go_real_time_data/Go real-time demo questionnaire (Responses).xlsx
@@ -1014,7 +1014,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1">
-        <v>43543.705503206016</v>
+        <v>43543.70550435185</v>
       </c>
       <c r="B32" s="2">
         <v>60.0</v>
@@ -1028,7 +1028,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1">
-        <v>43543.705806909726</v>
+        <v>43543.70580797453</v>
       </c>
       <c r="B33" s="2">
         <v>12.0</v>

--- a/gdrive/Go_real_time_data/Go real-time demo questionnaire (Responses).xlsx
+++ b/gdrive/Go_real_time_data/Go real-time demo questionnaire (Responses).xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="12">
   <si>
     <t>Timestamp</t>
   </si>
@@ -1040,6 +1040,35 @@
         <v>1300.0</v>
       </c>
     </row>
+    <row r="34">
+      <c r="A34" s="1">
+        <v>43543.80747850695</v>
+      </c>
+      <c r="B34" s="2">
+        <v>19.0</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="2">
+        <v>60.0</v>
+      </c>
+      <c r="E34" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="F34" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="G34" s="2">
+        <v>40.0</v>
+      </c>
+      <c r="H34" s="2">
+        <v>70.0</v>
+      </c>
+      <c r="I34" s="2">
+        <v>40.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/gdrive/Go_real_time_data/Go real-time demo questionnaire (Responses).xlsx
+++ b/gdrive/Go_real_time_data/Go real-time demo questionnaire (Responses).xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Form Responses 1" sheetId="1" r:id="rId3"/>
@@ -97,11 +97,11 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
